--- a/05_mysql/uploads/고객정보1.xlsx
+++ b/05_mysql/uploads/고객정보1.xlsx
@@ -37,28 +37,10 @@
     <t xml:space="preserve">비밀번호</t>
   </si>
   <si>
-    <t xml:space="preserve">함수</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">ho1@email.com</t>
-    </r>
+    <t xml:space="preserve">호빵맨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho1@email.com</t>
   </si>
   <si>
     <t xml:space="preserve">010-0000-1111</t>
@@ -67,28 +49,10 @@
     <t xml:space="preserve">대구 수성구</t>
   </si>
   <si>
-    <t xml:space="preserve">제발</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">s@email.com</t>
-    </r>
+    <t xml:space="preserve">세균맨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s@email.com</t>
   </si>
   <si>
     <t xml:space="preserve">010-2585-4695</t>
@@ -97,28 +61,10 @@
     <t xml:space="preserve">대구 서구</t>
   </si>
   <si>
-    <t xml:space="preserve">그만</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">do@email.com</t>
-    </r>
+    <t xml:space="preserve">식빵맨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do@email.com</t>
   </si>
   <si>
     <t xml:space="preserve">010-4297-5438</t>
@@ -209,12 +155,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,7 +328,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -387,7 +337,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>1234</v>
       </c>
     </row>
@@ -395,7 +345,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -404,7 +354,7 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>1234</v>
       </c>
     </row>
@@ -412,7 +362,7 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -421,7 +371,7 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>1234</v>
       </c>
     </row>
